--- a/Headphones/headphones_sample_cleaned.xlsx
+++ b/Headphones/headphones_sample_cleaned.xlsx
@@ -13924,7 +13924,7 @@
     <t>192</t>
   </si>
   <si>
-    <t>Headphones</t>
+    <t>Headphone</t>
   </si>
 </sst>
 </file>
